--- a/ILVIYV_03.24/ilviyv_gyak7.xlsx
+++ b/ILVIYV_03.24/ilviyv_gyak7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\II. félév\OS\Git\Repository\ILVIYVOsGyak\ILVIYV_03.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBC591-4FE1-498D-8C95-7604E66974D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F6926-50B6-4557-AC9F-7A623BE05B8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7DEBBE5-D6CF-49B0-8F8A-F47C30300D97}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="29">
   <si>
     <t>p_uspri=60 {A,B,C,D}</t>
   </si>
@@ -43,6 +43,84 @@
   </si>
   <si>
     <t>p_cpu=0 {A,B,C,D}</t>
+  </si>
+  <si>
+    <t>Clock tick</t>
+  </si>
+  <si>
+    <t>p_uspri</t>
+  </si>
+  <si>
+    <t>p_cpu</t>
+  </si>
+  <si>
+    <t>A processz</t>
+  </si>
+  <si>
+    <t>B processz</t>
+  </si>
+  <si>
+    <t>C processz</t>
+  </si>
+  <si>
+    <t>D processz</t>
+  </si>
+  <si>
+    <t>Reschedule</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Starting point</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Sorrend: C-A-B-D</t>
+  </si>
+  <si>
+    <t>Sorrend: A-B-C-D</t>
+  </si>
+  <si>
+    <t>-----------</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>------------</t>
+  </si>
+  <si>
+    <t>Sorrend:A-B-C-D</t>
+  </si>
+  <si>
+    <t>Sorrend:B-C-D-A</t>
+  </si>
+  <si>
+    <t>Sorrend:C-D-A-B</t>
   </si>
 </sst>
 </file>
@@ -79,8 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -395,33 +477,2832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE03AD8-26AB-49C1-B72E-5E37F2670434}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>60</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>60</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>60</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>60</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>60</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>60</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>60</v>
+      </c>
+      <c r="R11">
+        <v>99</v>
+      </c>
+      <c r="S11">
+        <v>60</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>60</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>60</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12">
+        <v>62</v>
+      </c>
+      <c r="R12">
+        <v>49</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>50</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>50</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>62</v>
+      </c>
+      <c r="R13">
+        <v>49</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>50</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>62</v>
+      </c>
+      <c r="R15">
+        <v>49</v>
+      </c>
+      <c r="S15">
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <v>99</v>
+      </c>
+      <c r="U15">
+        <v>50</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16">
+        <f>50+24/4</f>
+        <v>56</v>
+      </c>
+      <c r="R16">
+        <v>24</v>
+      </c>
+      <c r="S16">
+        <v>62</v>
+      </c>
+      <c r="T16">
+        <v>49</v>
+      </c>
+      <c r="U16">
+        <v>50</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>50</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>56</v>
+      </c>
+      <c r="R17">
+        <v>24</v>
+      </c>
+      <c r="S17">
+        <v>62</v>
+      </c>
+      <c r="T17">
+        <v>49</v>
+      </c>
+      <c r="U17">
+        <v>50</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>50</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>60</v>
+      </c>
+      <c r="H38">
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>60</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>60</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>60</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>60</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>29</v>
+      </c>
+      <c r="G50">
+        <v>60</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>60</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <f>D50*1/2</f>
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>54</v>
+      </c>
+      <c r="F51">
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>52</v>
+      </c>
+      <c r="H51">
+        <f>H50*1/2</f>
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>62</v>
+      </c>
+      <c r="J51">
+        <f>J50*1/2</f>
+        <v>10</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>54</v>
+      </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>52</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>62</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>52</v>
+      </c>
+      <c r="H54">
+        <v>19</v>
+      </c>
+      <c r="I54">
+        <v>62</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>52</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>62</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>52</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>62</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>54</v>
+      </c>
+      <c r="F58">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>52</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>62</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>54</v>
+      </c>
+      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>52</v>
+      </c>
+      <c r="H59">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>62</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>54</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>54</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>52</v>
+      </c>
+      <c r="H60">
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>62</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>54</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>52</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>62</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>54</v>
+      </c>
+      <c r="F63">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>52</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>54</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>54</v>
+      </c>
+      <c r="F64">
+        <v>24</v>
+      </c>
+      <c r="G64">
+        <v>52</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <v>11</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66">
+        <v>54</v>
+      </c>
+      <c r="F66">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>52</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>62</v>
+      </c>
+      <c r="J66">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>54</v>
+      </c>
+      <c r="F67">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <v>52</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>62</v>
+      </c>
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>54</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>52</v>
+      </c>
+      <c r="H68">
+        <v>21</v>
+      </c>
+      <c r="I68">
+        <v>62</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>52</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="I70">
+        <v>62</v>
+      </c>
+      <c r="J70">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>54</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>54</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>52</v>
+      </c>
+      <c r="H71">
+        <v>31</v>
+      </c>
+      <c r="I71">
+        <v>62</v>
+      </c>
+      <c r="J71">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>54</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+      <c r="E72">
+        <v>54</v>
+      </c>
+      <c r="F72">
+        <v>24</v>
+      </c>
+      <c r="G72">
+        <v>52</v>
+      </c>
+      <c r="H72">
+        <v>31</v>
+      </c>
+      <c r="I72">
+        <v>62</v>
+      </c>
+      <c r="J72">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>54</v>
+      </c>
+      <c r="D74">
+        <v>34</v>
+      </c>
+      <c r="E74">
+        <v>54</v>
+      </c>
+      <c r="F74">
+        <v>24</v>
+      </c>
+      <c r="G74">
+        <v>52</v>
+      </c>
+      <c r="H74">
+        <v>31</v>
+      </c>
+      <c r="I74">
+        <v>62</v>
+      </c>
+      <c r="J74">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>54</v>
+      </c>
+      <c r="F75">
+        <v>24</v>
+      </c>
+      <c r="G75">
+        <v>52</v>
+      </c>
+      <c r="H75">
+        <v>31</v>
+      </c>
+      <c r="I75">
+        <v>62</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>35</v>
+      </c>
+      <c r="E76">
+        <v>54</v>
+      </c>
+      <c r="F76">
+        <v>25</v>
+      </c>
+      <c r="G76">
+        <v>52</v>
+      </c>
+      <c r="H76">
+        <v>31</v>
+      </c>
+      <c r="I76">
+        <v>62</v>
+      </c>
+      <c r="J76">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>54</v>
+      </c>
+      <c r="F78">
+        <v>33</v>
+      </c>
+      <c r="G78">
+        <v>52</v>
+      </c>
+      <c r="H78">
+        <v>31</v>
+      </c>
+      <c r="I78">
+        <v>62</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>54</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+      <c r="E79">
+        <v>54</v>
+      </c>
+      <c r="F79">
+        <v>34</v>
+      </c>
+      <c r="G79">
+        <v>52</v>
+      </c>
+      <c r="H79">
+        <v>31</v>
+      </c>
+      <c r="I79">
+        <v>62</v>
+      </c>
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>54</v>
+      </c>
+      <c r="D80">
+        <v>35</v>
+      </c>
+      <c r="E80">
+        <v>54</v>
+      </c>
+      <c r="F80">
+        <v>34</v>
+      </c>
+      <c r="G80">
+        <v>52</v>
+      </c>
+      <c r="H80">
+        <v>31</v>
+      </c>
+      <c r="I80">
+        <v>62</v>
+      </c>
+      <c r="J80">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>35</v>
+      </c>
+      <c r="E82">
+        <v>54</v>
+      </c>
+      <c r="F82">
+        <v>34</v>
+      </c>
+      <c r="G82">
+        <v>52</v>
+      </c>
+      <c r="H82">
+        <v>31</v>
+      </c>
+      <c r="I82">
+        <v>62</v>
+      </c>
+      <c r="J82">
+        <v>29</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>54</v>
+      </c>
+      <c r="D83">
+        <v>35</v>
+      </c>
+      <c r="E83">
+        <v>54</v>
+      </c>
+      <c r="F83">
+        <v>34</v>
+      </c>
+      <c r="G83">
+        <v>52</v>
+      </c>
+      <c r="H83">
+        <v>31</v>
+      </c>
+      <c r="I83">
+        <v>62</v>
+      </c>
+      <c r="J83">
+        <v>30</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <v>35</v>
+      </c>
+      <c r="E84">
+        <v>54</v>
+      </c>
+      <c r="F84">
+        <v>34</v>
+      </c>
+      <c r="G84">
+        <v>52</v>
+      </c>
+      <c r="H84">
+        <v>32</v>
+      </c>
+      <c r="I84">
+        <v>62</v>
+      </c>
+      <c r="J84">
+        <v>30</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>54</v>
+      </c>
+      <c r="D86">
+        <v>35</v>
+      </c>
+      <c r="E86">
+        <v>54</v>
+      </c>
+      <c r="F86">
+        <v>34</v>
+      </c>
+      <c r="G86">
+        <v>52</v>
+      </c>
+      <c r="H86">
+        <v>40</v>
+      </c>
+      <c r="I86">
+        <v>62</v>
+      </c>
+      <c r="J86">
+        <v>30</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>54</v>
+      </c>
+      <c r="D87">
+        <v>35</v>
+      </c>
+      <c r="E87">
+        <v>54</v>
+      </c>
+      <c r="F87">
+        <v>34</v>
+      </c>
+      <c r="G87">
+        <v>52</v>
+      </c>
+      <c r="H87">
+        <v>41</v>
+      </c>
+      <c r="I87">
+        <v>62</v>
+      </c>
+      <c r="J87">
+        <v>30</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>54</v>
+      </c>
+      <c r="D88">
+        <v>36</v>
+      </c>
+      <c r="E88">
+        <v>54</v>
+      </c>
+      <c r="F88">
+        <v>34</v>
+      </c>
+      <c r="G88">
+        <v>52</v>
+      </c>
+      <c r="H88">
+        <v>41</v>
+      </c>
+      <c r="I88">
+        <v>62</v>
+      </c>
+      <c r="J88">
+        <v>30</v>
+      </c>
+      <c r="K88" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <f>50+D90*1/4</f>
+        <v>54.5</v>
+      </c>
+      <c r="D90">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <f>50+F90*1/4</f>
+        <v>54.25</v>
+      </c>
+      <c r="F90">
+        <v>17</v>
+      </c>
+      <c r="G90">
+        <f>50+H90*1/4</f>
+        <v>55</v>
+      </c>
+      <c r="H90">
+        <v>20</v>
+      </c>
+      <c r="I90">
+        <f>50+J90*1/4+2*5</f>
+        <v>63.75</v>
+      </c>
+      <c r="J90">
+        <v>15</v>
+      </c>
+      <c r="K90" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>54</v>
+      </c>
+      <c r="D91">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>54</v>
+      </c>
+      <c r="F91">
+        <v>17</v>
+      </c>
+      <c r="G91">
+        <v>55</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91">
+        <v>63</v>
+      </c>
+      <c r="J91">
+        <v>15</v>
+      </c>
+      <c r="K91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>54</v>
+      </c>
+      <c r="D92">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>54</v>
+      </c>
+      <c r="F92">
+        <v>17</v>
+      </c>
+      <c r="G92">
+        <v>55</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92">
+        <v>63</v>
+      </c>
+      <c r="J92">
+        <v>15</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="Q6:R6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
